--- a/pred_ohlcv/54_21/2019-10-31 BCH ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-31 BCH ohlcv.xlsx
@@ -7048,7 +7048,7 @@
         <v>-964.7895073600001</v>
       </c>
       <c r="H256">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>-988.3321073600001</v>
       </c>
       <c r="H257">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>-1001.75720736</v>
       </c>
       <c r="H258">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>-1144.40980736</v>
       </c>
       <c r="H260">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>-826.7659073600003</v>
       </c>
       <c r="H265">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>-677.8417073600002</v>
       </c>
       <c r="H266">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>2151.83409774</v>
       </c>
       <c r="H276">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>1480.50151038</v>
       </c>
       <c r="H277">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>1869.15235956</v>
       </c>
       <c r="H278">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>2414.0959742</v>
       </c>
       <c r="H279">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>1973.578779429999</v>
       </c>
       <c r="H280">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>1297.927421469999</v>
       </c>
       <c r="H281">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>351.8950781599993</v>
       </c>
       <c r="H299">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>123.0615960699994</v>
       </c>
       <c r="H300">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>215.1717960699993</v>
       </c>
       <c r="H301">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>63.17849606999934</v>
       </c>
       <c r="H302">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>94.53389606999934</v>
       </c>
       <c r="H303">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>106.8733960699993</v>
       </c>
       <c r="H304">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>-14.87262271000066</v>
       </c>
       <c r="H305">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>-115.7290512800007</v>
       </c>
       <c r="H306">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>-115.7290512800007</v>
       </c>
       <c r="H307">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>-107.3193512800007</v>
       </c>
       <c r="H308">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>-166.3886512800007</v>
       </c>
       <c r="H309">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>-49.89515314000066</v>
       </c>
       <c r="H310">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -8478,7 +8478,7 @@
         <v>-65.13905314000066</v>
       </c>
       <c r="H311">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>-187.5861531400006</v>
       </c>
       <c r="H312">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -22232,7 +22232,7 @@
         <v>-2018.41822909</v>
       </c>
       <c r="H840">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="841" spans="1:8">
@@ -22258,7 +22258,7 @@
         <v>-1928.57172909</v>
       </c>
       <c r="H841">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="842" spans="1:8">
@@ -22284,7 +22284,7 @@
         <v>-1655.18072909</v>
       </c>
       <c r="H842">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="843" spans="1:8">
@@ -22518,7 +22518,7 @@
         <v>-1992.63662909</v>
       </c>
       <c r="H851">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="852" spans="1:8">
@@ -22544,7 +22544,7 @@
         <v>-2115.14572909</v>
       </c>
       <c r="H852">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="853" spans="1:8">
@@ -22570,7 +22570,7 @@
         <v>-2085.39382909</v>
       </c>
       <c r="H853">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="854" spans="1:8">
@@ -22596,7 +22596,7 @@
         <v>-2082.41672909</v>
       </c>
       <c r="H854">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="855" spans="1:8">
@@ -22622,7 +22622,7 @@
         <v>-1983.74892909</v>
       </c>
       <c r="H855">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="856" spans="1:8">
@@ -22648,7 +22648,7 @@
         <v>-1817.54452909</v>
       </c>
       <c r="H856">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="857" spans="1:8">
@@ -23636,7 +23636,7 @@
         <v>-830.7978697599999</v>
       </c>
       <c r="H894">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="895" spans="1:8">
@@ -30864,7 +30864,7 @@
         <v>-1852.381353930002</v>
       </c>
       <c r="H1172">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1173" spans="1:8">
@@ -30890,7 +30890,7 @@
         <v>-1855.966553930002</v>
       </c>
       <c r="H1173">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1174" spans="1:8">
@@ -30942,7 +30942,7 @@
         <v>-1776.155353930002</v>
       </c>
       <c r="H1175">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1176" spans="1:8">
@@ -31176,7 +31176,7 @@
         <v>-1839.136753930002</v>
       </c>
       <c r="H1184">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1185" spans="1:8">
@@ -31202,7 +31202,7 @@
         <v>-1841.663353930002</v>
       </c>
       <c r="H1185">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1186" spans="1:8">
@@ -31410,7 +31410,7 @@
         <v>-1734.151153930002</v>
       </c>
       <c r="H1193">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1194" spans="1:8">
@@ -31436,7 +31436,7 @@
         <v>-1715.657153930002</v>
       </c>
       <c r="H1194">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1195" spans="1:8">
@@ -31462,7 +31462,7 @@
         <v>-1733.765453930002</v>
       </c>
       <c r="H1195">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1196" spans="1:8">
@@ -31488,7 +31488,7 @@
         <v>-1837.939553930002</v>
       </c>
       <c r="H1196">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1197" spans="1:8">
@@ -31514,7 +31514,7 @@
         <v>-1843.753353930002</v>
       </c>
       <c r="H1197">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1198" spans="1:8">
@@ -31566,7 +31566,7 @@
         <v>-1820.511553930002</v>
       </c>
       <c r="H1199">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1200" spans="1:8">
@@ -31592,7 +31592,7 @@
         <v>-1718.472953930002</v>
       </c>
       <c r="H1200">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1201" spans="1:8">
@@ -31618,7 +31618,7 @@
         <v>-1715.764553930002</v>
       </c>
       <c r="H1201">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1202" spans="1:8">
@@ -31644,7 +31644,7 @@
         <v>-1716.319753930002</v>
       </c>
       <c r="H1202">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1203" spans="1:8">
@@ -31670,7 +31670,7 @@
         <v>-1713.999053930002</v>
       </c>
       <c r="H1203">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1204" spans="1:8">
@@ -31696,7 +31696,7 @@
         <v>-1719.404353930002</v>
       </c>
       <c r="H1204">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1205" spans="1:8">
@@ -31748,7 +31748,7 @@
         <v>-1697.107053930002</v>
       </c>
       <c r="H1206">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1207" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-31 BCH ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-31 BCH ohlcv.xlsx
@@ -7152,7 +7152,7 @@
         <v>-1144.40980736</v>
       </c>
       <c r="H260">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>-826.7659073600003</v>
       </c>
       <c r="H265">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>-677.8417073600002</v>
       </c>
       <c r="H266">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>-772.7358073600002</v>
       </c>
       <c r="H267">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>2151.83409774</v>
       </c>
       <c r="H276">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>1480.50151038</v>
       </c>
       <c r="H277">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>1869.15235956</v>
       </c>
       <c r="H278">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>2414.0959742</v>
       </c>
       <c r="H279">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>1973.578779429999</v>
       </c>
       <c r="H280">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>1297.927421469999</v>
       </c>
       <c r="H281">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>580.3176373099993</v>
       </c>
       <c r="H286">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>-21.50912184000069</v>
       </c>
       <c r="H294">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>204.2495781599993</v>
       </c>
       <c r="H298">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>351.8950781599993</v>
       </c>
       <c r="H299">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>123.0615960699994</v>
       </c>
       <c r="H300">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>215.1717960699993</v>
       </c>
       <c r="H301">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>63.17849606999934</v>
       </c>
       <c r="H302">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>94.53389606999934</v>
       </c>
       <c r="H303">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>106.8733960699993</v>
       </c>
       <c r="H304">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>-14.87262271000066</v>
       </c>
       <c r="H305">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>-115.7290512800007</v>
       </c>
       <c r="H306">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>-115.7290512800007</v>
       </c>
       <c r="H307">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>-107.3193512800007</v>
       </c>
       <c r="H308">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -22232,7 +22232,7 @@
         <v>-2018.41822909</v>
       </c>
       <c r="H840">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="841" spans="1:8">
@@ -22258,7 +22258,7 @@
         <v>-1928.57172909</v>
       </c>
       <c r="H841">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="842" spans="1:8">
@@ -22284,7 +22284,7 @@
         <v>-1655.18072909</v>
       </c>
       <c r="H842">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="843" spans="1:8">
@@ -22518,7 +22518,7 @@
         <v>-1992.63662909</v>
       </c>
       <c r="H851">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="852" spans="1:8">
@@ -22544,7 +22544,7 @@
         <v>-2115.14572909</v>
       </c>
       <c r="H852">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="853" spans="1:8">
@@ -22570,7 +22570,7 @@
         <v>-2085.39382909</v>
       </c>
       <c r="H853">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="854" spans="1:8">
@@ -22596,7 +22596,7 @@
         <v>-2082.41672909</v>
       </c>
       <c r="H854">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="855" spans="1:8">
@@ -22622,7 +22622,7 @@
         <v>-1983.74892909</v>
       </c>
       <c r="H855">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="856" spans="1:8">
@@ -22648,7 +22648,7 @@
         <v>-1817.54452909</v>
       </c>
       <c r="H856">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="857" spans="1:8">
@@ -23636,7 +23636,7 @@
         <v>-830.7978697599999</v>
       </c>
       <c r="H894">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="895" spans="1:8">
@@ -30864,7 +30864,7 @@
         <v>-1852.381353930002</v>
       </c>
       <c r="H1172">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1173" spans="1:8">
@@ -30890,7 +30890,7 @@
         <v>-1855.966553930002</v>
       </c>
       <c r="H1173">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1174" spans="1:8">
@@ -30942,7 +30942,7 @@
         <v>-1776.155353930002</v>
       </c>
       <c r="H1175">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1176" spans="1:8">
@@ -31124,7 +31124,7 @@
         <v>-1801.753453930002</v>
       </c>
       <c r="H1182">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1183" spans="1:8">
@@ -31150,7 +31150,7 @@
         <v>-1813.417053930002</v>
       </c>
       <c r="H1183">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1184" spans="1:8">
@@ -31722,7 +31722,7 @@
         <v>-1734.123953930002</v>
       </c>
       <c r="H1205">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1206" spans="1:8">
@@ -31774,7 +31774,7 @@
         <v>-1697.107053930002</v>
       </c>
       <c r="H1207">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1208" spans="1:8">
@@ -31826,7 +31826,7 @@
         <v>-1715.079953930002</v>
       </c>
       <c r="H1209">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1210" spans="1:8">
@@ -31852,7 +31852,7 @@
         <v>-1719.062953930002</v>
       </c>
       <c r="H1210">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1211" spans="1:8">
@@ -31904,7 +31904,7 @@
         <v>-1735.303253930002</v>
       </c>
       <c r="H1212">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1213" spans="1:8">
@@ -31930,7 +31930,7 @@
         <v>-1734.752853930001</v>
       </c>
       <c r="H1213">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1214" spans="1:8">
@@ -31956,7 +31956,7 @@
         <v>-1781.155353930001</v>
       </c>
       <c r="H1214">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1215" spans="1:8">
@@ -31982,7 +31982,7 @@
         <v>-1802.115553930001</v>
       </c>
       <c r="H1215">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1216" spans="1:8">
@@ -32008,7 +32008,7 @@
         <v>-1780.732853930002</v>
       </c>
       <c r="H1216">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1217" spans="1:8">
@@ -32034,7 +32034,7 @@
         <v>-1780.659653930001</v>
       </c>
       <c r="H1217">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1218" spans="1:8">
@@ -32060,7 +32060,7 @@
         <v>-1790.960353930001</v>
       </c>
       <c r="H1218">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1219" spans="1:8">
@@ -32086,7 +32086,7 @@
         <v>-1786.314153930002</v>
       </c>
       <c r="H1219">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1220" spans="1:8">
@@ -32112,7 +32112,7 @@
         <v>-1786.844353930001</v>
       </c>
       <c r="H1220">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1221" spans="1:8">
@@ -32138,7 +32138,7 @@
         <v>-1764.858653930002</v>
       </c>
       <c r="H1221">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1222" spans="1:8">
@@ -32164,7 +32164,7 @@
         <v>-1711.325953930002</v>
       </c>
       <c r="H1222">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1223" spans="1:8">
@@ -32190,7 +32190,7 @@
         <v>-1649.893053930002</v>
       </c>
       <c r="H1223">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1224" spans="1:8">
@@ -32216,7 +32216,7 @@
         <v>-1472.820053930001</v>
       </c>
       <c r="H1224">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1225" spans="1:8">
